--- a/VersionRecords/Version 5.2.10.4 20170213/版本Bug和特性计划及评审表v5.2.10.4_EQ组.xlsx
+++ b/VersionRecords/Version 5.2.10.4 20170213/版本Bug和特性计划及评审表v5.2.10.4_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.2.10.4 20170213\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27810" windowHeight="11280"/>
   </bookViews>
@@ -29,12 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="109">
   <si>
     <t>No</t>
   </si>
@@ -214,9 +209,6 @@
     <t>EQ-181</t>
   </si>
   <si>
-    <t>修复线上400通话记录定时器跨月问题</t>
-  </si>
-  <si>
     <t>Fix Bugs</t>
   </si>
   <si>
@@ -397,14 +389,22 @@
   </si>
   <si>
     <t>EQ-397</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈美</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复线上400通话记录定时器跨月问题</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1131,7 +1131,7 @@
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="着色 4" xfId="5" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1489,14 +1489,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="60" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="60" customWidth="1"/>
@@ -1522,7 +1522,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="58" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="58" customFormat="1" ht="27">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A2" s="64">
         <v>1</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="W2" s="85"/>
       <c r="X2" s="86"/>
     </row>
-    <row r="3" spans="1:24" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A3" s="64">
         <v>2</v>
       </c>
@@ -1717,7 +1717,7 @@
       <c r="W3" s="87"/>
       <c r="X3" s="86"/>
     </row>
-    <row r="4" spans="1:24" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A4" s="64">
         <v>3</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="W4" s="87"/>
       <c r="X4" s="86"/>
     </row>
-    <row r="5" spans="1:24" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A5" s="64">
         <v>4</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="W5" s="87"/>
       <c r="X5" s="86"/>
     </row>
-    <row r="6" spans="1:24" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A6" s="64">
         <v>5</v>
       </c>
@@ -1852,13 +1852,13 @@
         <v>24</v>
       </c>
       <c r="D6" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="F6" s="66" t="s">
         <v>49</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>50</v>
       </c>
       <c r="G6" s="66" t="s">
         <v>28</v>
@@ -1883,7 +1883,7 @@
         <v>31</v>
       </c>
       <c r="O6" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P6" s="78" t="s">
         <v>33</v>
@@ -1895,13 +1895,15 @@
         <v>34</v>
       </c>
       <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
+      <c r="T6" s="75">
+        <v>8826</v>
+      </c>
       <c r="U6" s="75"/>
       <c r="V6" s="83"/>
       <c r="W6" s="87"/>
       <c r="X6" s="86"/>
     </row>
-    <row r="7" spans="1:24" s="59" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="59" customFormat="1" ht="17.25">
       <c r="A7" s="64">
         <v>6</v>
       </c>
@@ -1912,13 +1914,13 @@
         <v>24</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="66" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="66" t="s">
         <v>28</v>
@@ -1934,7 +1936,7 @@
       </c>
       <c r="K7" s="66"/>
       <c r="L7" s="79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M7" s="66" t="s">
         <v>30</v>
@@ -1943,7 +1945,7 @@
         <v>46</v>
       </c>
       <c r="O7" s="66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" s="78" t="s">
         <v>33</v>
@@ -1955,7 +1957,7 @@
         <v>34</v>
       </c>
       <c r="S7" s="84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T7" s="75"/>
       <c r="U7" s="75"/>
@@ -1963,7 +1965,7 @@
       <c r="W7" s="87"/>
       <c r="X7" s="86"/>
     </row>
-    <row r="8" spans="1:24" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A8" s="64">
         <v>7</v>
       </c>
@@ -1974,13 +1976,13 @@
         <v>24</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="66" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="66" t="s">
         <v>28</v>
@@ -1996,7 +1998,7 @@
       </c>
       <c r="K8" s="66"/>
       <c r="L8" s="79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M8" s="66" t="s">
         <v>30</v>
@@ -2005,7 +2007,7 @@
         <v>46</v>
       </c>
       <c r="O8" s="66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P8" s="78" t="s">
         <v>33</v>
@@ -2017,7 +2019,7 @@
         <v>34</v>
       </c>
       <c r="S8" s="88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8" s="89"/>
       <c r="U8" s="89"/>
@@ -2025,7 +2027,7 @@
       <c r="W8" s="87"/>
       <c r="X8" s="86"/>
     </row>
-    <row r="9" spans="1:24" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A9" s="64">
         <v>8</v>
       </c>
@@ -2036,13 +2038,13 @@
         <v>24</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="66" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="66" t="s">
         <v>28</v>
@@ -2058,7 +2060,7 @@
       </c>
       <c r="K9" s="66"/>
       <c r="L9" s="79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M9" s="66" t="s">
         <v>30</v>
@@ -2067,7 +2069,7 @@
         <v>46</v>
       </c>
       <c r="O9" s="66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" s="78" t="s">
         <v>33</v>
@@ -2079,7 +2081,7 @@
         <v>34</v>
       </c>
       <c r="S9" s="84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" s="75"/>
       <c r="U9" s="75"/>
@@ -2087,7 +2089,7 @@
       <c r="W9" s="87"/>
       <c r="X9" s="86"/>
     </row>
-    <row r="10" spans="1:24" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A10" s="64">
         <v>9</v>
       </c>
@@ -2098,13 +2100,13 @@
         <v>24</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="66" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="66" t="s">
         <v>28</v>
@@ -2120,20 +2122,28 @@
       </c>
       <c r="K10" s="66"/>
       <c r="L10" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="66" t="s">
         <v>105</v>
-      </c>
-      <c r="M10" s="66" t="s">
-        <v>106</v>
       </c>
       <c r="N10" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="66"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="78"/>
+      <c r="O10" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="67">
+        <v>42779</v>
+      </c>
+      <c r="R10" s="78" t="s">
+        <v>34</v>
+      </c>
       <c r="S10" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T10" s="75"/>
       <c r="U10" s="75"/>
@@ -2141,7 +2151,7 @@
       <c r="W10" s="87"/>
       <c r="X10" s="86"/>
     </row>
-    <row r="11" spans="1:24" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A11" s="64"/>
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
@@ -2167,7 +2177,7 @@
       <c r="W11" s="87"/>
       <c r="X11" s="86"/>
     </row>
-    <row r="12" spans="1:24" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A12" s="64"/>
       <c r="B12" s="64"/>
       <c r="C12" s="64"/>
@@ -2193,7 +2203,7 @@
       <c r="W12" s="87"/>
       <c r="X12" s="86"/>
     </row>
-    <row r="13" spans="1:24" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="64"/>
@@ -2219,7 +2229,7 @@
       <c r="W13" s="87"/>
       <c r="X13" s="86"/>
     </row>
-    <row r="14" spans="1:24" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="64"/>
@@ -2245,7 +2255,7 @@
       <c r="W14" s="87"/>
       <c r="X14" s="86"/>
     </row>
-    <row r="15" spans="1:24" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A15" s="64"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
@@ -2271,7 +2281,7 @@
       <c r="W15" s="87"/>
       <c r="X15" s="86"/>
     </row>
-    <row r="16" spans="1:24" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="59" customFormat="1" ht="16.5">
       <c r="A16" s="64"/>
       <c r="B16" s="64"/>
       <c r="C16" s="64"/>
@@ -2297,7 +2307,7 @@
       <c r="W16" s="90"/>
       <c r="X16" s="86"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="16.5">
       <c r="A17" s="64"/>
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
@@ -2322,7 +2332,7 @@
       <c r="V17" s="75"/>
       <c r="W17" s="76"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="64"/>
       <c r="B18" s="64"/>
       <c r="C18" s="64"/>
@@ -2347,7 +2357,7 @@
       <c r="V18" s="75"/>
       <c r="W18" s="76"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="64"/>
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
@@ -2372,7 +2382,7 @@
       <c r="V19" s="75"/>
       <c r="W19" s="76"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="64"/>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
@@ -2397,7 +2407,7 @@
       <c r="V20" s="75"/>
       <c r="W20" s="87"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
@@ -2422,7 +2432,7 @@
       <c r="V21" s="75"/>
       <c r="W21" s="87"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
@@ -2447,7 +2457,7 @@
       <c r="V22" s="75"/>
       <c r="W22" s="87"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -2472,7 +2482,7 @@
       <c r="V23" s="91"/>
       <c r="W23" s="92"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
@@ -2497,7 +2507,7 @@
       <c r="V24" s="93"/>
       <c r="W24" s="92"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
@@ -2522,7 +2532,7 @@
       <c r="V25" s="94"/>
       <c r="W25" s="92"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="64"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
@@ -2547,7 +2557,7 @@
       <c r="V26" s="93"/>
       <c r="W26" s="92"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -2572,7 +2582,7 @@
       <c r="V27" s="93"/>
       <c r="W27" s="92"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
@@ -2597,7 +2607,7 @@
       <c r="V28" s="89"/>
       <c r="W28" s="78"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
@@ -2622,7 +2632,7 @@
       <c r="V29" s="75"/>
       <c r="W29" s="87"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="64"/>
       <c r="B30" s="64"/>
       <c r="C30" s="64"/>
@@ -2647,7 +2657,7 @@
       <c r="V30" s="75"/>
       <c r="W30" s="87"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="64"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
@@ -2672,7 +2682,7 @@
       <c r="V31" s="75"/>
       <c r="W31" s="87"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="64"/>
       <c r="B32" s="64"/>
       <c r="C32" s="64"/>
@@ -2697,7 +2707,7 @@
       <c r="V32" s="93"/>
       <c r="W32" s="92"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="64"/>
       <c r="B33" s="64"/>
       <c r="C33" s="64"/>
@@ -2722,7 +2732,7 @@
       <c r="V33" s="75"/>
       <c r="W33" s="85"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="64"/>
       <c r="B34" s="64"/>
       <c r="C34" s="64"/>
@@ -2747,7 +2757,7 @@
       <c r="V34" s="75"/>
       <c r="W34" s="87"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="64"/>
       <c r="B35" s="64"/>
       <c r="C35" s="64"/>
@@ -2772,7 +2782,7 @@
       <c r="V35" s="75"/>
       <c r="W35" s="87"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="64"/>
       <c r="B36" s="64"/>
       <c r="C36" s="64"/>
@@ -2797,7 +2807,7 @@
       <c r="V36" s="75"/>
       <c r="W36" s="87"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="64"/>
       <c r="B37" s="64"/>
       <c r="C37" s="64"/>
@@ -2822,7 +2832,7 @@
       <c r="V37" s="75"/>
       <c r="W37" s="87"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="64"/>
       <c r="B38" s="64"/>
       <c r="C38" s="64"/>
@@ -2847,7 +2857,7 @@
       <c r="V38" s="75"/>
       <c r="W38" s="87"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="64"/>
       <c r="B39" s="64"/>
       <c r="C39" s="64"/>
@@ -2872,7 +2882,7 @@
       <c r="V39" s="75"/>
       <c r="W39" s="87"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="64"/>
       <c r="B40" s="64"/>
       <c r="C40" s="64"/>
@@ -2897,7 +2907,7 @@
       <c r="V40" s="75"/>
       <c r="W40" s="87"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="64"/>
       <c r="B41" s="64"/>
       <c r="C41" s="64"/>
@@ -2922,7 +2932,7 @@
       <c r="V41" s="75"/>
       <c r="W41" s="87"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="64"/>
       <c r="B42" s="64"/>
       <c r="C42" s="64"/>
@@ -2947,7 +2957,7 @@
       <c r="V42" s="75"/>
       <c r="W42" s="87"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="64"/>
       <c r="B43" s="64"/>
       <c r="C43" s="64"/>
@@ -2972,7 +2982,7 @@
       <c r="V43" s="75"/>
       <c r="W43" s="87"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="64"/>
       <c r="B44" s="64"/>
       <c r="C44" s="64"/>
@@ -2997,7 +3007,7 @@
       <c r="V44" s="89"/>
       <c r="W44" s="87"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="64"/>
       <c r="B45" s="64"/>
       <c r="C45" s="64"/>
@@ -3022,7 +3032,7 @@
       <c r="V45" s="89"/>
       <c r="W45" s="87"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="64"/>
       <c r="B46" s="64"/>
       <c r="C46" s="64"/>
@@ -3047,7 +3057,7 @@
       <c r="V46" s="75"/>
       <c r="W46" s="76"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="64"/>
       <c r="B47" s="64"/>
       <c r="C47" s="64"/>
@@ -3072,7 +3082,7 @@
       <c r="V47" s="75"/>
       <c r="W47" s="76"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="64"/>
       <c r="B48" s="64"/>
       <c r="C48" s="64"/>
@@ -3097,7 +3107,7 @@
       <c r="V48" s="75"/>
       <c r="W48" s="76"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="64"/>
       <c r="B49" s="64"/>
       <c r="C49" s="64"/>
@@ -3122,7 +3132,7 @@
       <c r="V49" s="75"/>
       <c r="W49" s="76"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="64"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64"/>
@@ -3147,7 +3157,7 @@
       <c r="V50" s="75"/>
       <c r="W50" s="76"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="64"/>
       <c r="B51" s="64"/>
       <c r="C51" s="64"/>
@@ -3172,7 +3182,7 @@
       <c r="V51" s="75"/>
       <c r="W51" s="76"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="64"/>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
@@ -3197,7 +3207,7 @@
       <c r="V52" s="75"/>
       <c r="W52" s="76"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
@@ -3222,7 +3232,7 @@
       <c r="V53" s="75"/>
       <c r="W53" s="76"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="75"/>
       <c r="B54" s="75"/>
       <c r="C54" s="75"/>
@@ -3247,7 +3257,7 @@
       <c r="V54" s="75"/>
       <c r="W54" s="76"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="75"/>
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
@@ -3272,7 +3282,7 @@
       <c r="V55" s="75"/>
       <c r="W55" s="76"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="75"/>
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
@@ -3297,7 +3307,7 @@
       <c r="V56" s="75"/>
       <c r="W56" s="76"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="75"/>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
@@ -3322,7 +3332,7 @@
       <c r="V57" s="75"/>
       <c r="W57" s="76"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="75"/>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
@@ -3347,7 +3357,7 @@
       <c r="V58" s="75"/>
       <c r="W58" s="76"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="75"/>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
@@ -3372,7 +3382,7 @@
       <c r="V59" s="75"/>
       <c r="W59" s="76"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="75"/>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
@@ -3397,7 +3407,7 @@
       <c r="V60" s="75"/>
       <c r="W60" s="76"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="75"/>
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
@@ -3422,7 +3432,7 @@
       <c r="V61" s="75"/>
       <c r="W61" s="76"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="75"/>
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
@@ -3447,7 +3457,7 @@
       <c r="V62" s="75"/>
       <c r="W62" s="76"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="75"/>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
@@ -3472,7 +3482,7 @@
       <c r="V63" s="75"/>
       <c r="W63" s="76"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="75"/>
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
@@ -3497,7 +3507,7 @@
       <c r="V64" s="75"/>
       <c r="W64" s="76"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="75"/>
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
@@ -3522,7 +3532,7 @@
       <c r="V65" s="75"/>
       <c r="W65" s="76"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="75"/>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -3547,7 +3557,7 @@
       <c r="V66" s="75"/>
       <c r="W66" s="76"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="75"/>
       <c r="B67" s="75"/>
       <c r="C67" s="75"/>
@@ -3572,7 +3582,7 @@
       <c r="V67" s="75"/>
       <c r="W67" s="76"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="75"/>
       <c r="B68" s="75"/>
       <c r="C68" s="75"/>
@@ -3597,7 +3607,7 @@
       <c r="V68" s="75"/>
       <c r="W68" s="76"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="75"/>
       <c r="B69" s="75"/>
       <c r="C69" s="75"/>
@@ -3622,7 +3632,7 @@
       <c r="V69" s="75"/>
       <c r="W69" s="76"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="75"/>
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
@@ -3647,7 +3657,7 @@
       <c r="V70" s="75"/>
       <c r="W70" s="76"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="75"/>
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
@@ -3672,7 +3682,7 @@
       <c r="V71" s="75"/>
       <c r="W71" s="76"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="75"/>
       <c r="B72" s="75"/>
       <c r="C72" s="75"/>
@@ -3697,7 +3707,7 @@
       <c r="V72" s="75"/>
       <c r="W72" s="76"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="75"/>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
@@ -3722,7 +3732,7 @@
       <c r="V73" s="75"/>
       <c r="W73" s="76"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="75"/>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
@@ -3747,7 +3757,7 @@
       <c r="V74" s="75"/>
       <c r="W74" s="76"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="75"/>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
@@ -3772,7 +3782,7 @@
       <c r="V75" s="75"/>
       <c r="W75" s="76"/>
     </row>
-    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="16.5">
       <c r="A76" s="75"/>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -3797,7 +3807,7 @@
       <c r="V76" s="75"/>
       <c r="W76" s="76"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="16.5">
       <c r="A77" s="75"/>
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
@@ -3822,7 +3832,7 @@
       <c r="V77" s="75"/>
       <c r="W77" s="76"/>
     </row>
-    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="16.5">
       <c r="A78" s="75"/>
       <c r="B78" s="75"/>
       <c r="C78" s="75"/>
@@ -3847,7 +3857,7 @@
       <c r="V78" s="75"/>
       <c r="W78" s="76"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23">
       <c r="A79" s="75"/>
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
@@ -3872,7 +3882,7 @@
       <c r="V79" s="75"/>
       <c r="W79" s="76"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="75"/>
       <c r="B80" s="75"/>
       <c r="C80" s="75"/>
@@ -3897,7 +3907,7 @@
       <c r="V80" s="75"/>
       <c r="W80" s="76"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="75"/>
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
@@ -3922,7 +3932,7 @@
       <c r="V81" s="75"/>
       <c r="W81" s="76"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="75"/>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
@@ -3947,7 +3957,7 @@
       <c r="V82" s="75"/>
       <c r="W82" s="76"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="75"/>
       <c r="B83" s="75"/>
       <c r="C83" s="75"/>
@@ -3972,7 +3982,7 @@
       <c r="V83" s="75"/>
       <c r="W83" s="76"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="75"/>
       <c r="B84" s="75"/>
       <c r="C84" s="75"/>
@@ -3997,7 +4007,7 @@
       <c r="V84" s="75"/>
       <c r="W84" s="76"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="75"/>
       <c r="B85" s="75"/>
       <c r="C85" s="75"/>
@@ -4022,7 +4032,7 @@
       <c r="V85" s="75"/>
       <c r="W85" s="76"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="75"/>
       <c r="B86" s="75"/>
       <c r="C86" s="75"/>
@@ -4047,7 +4057,7 @@
       <c r="V86" s="75"/>
       <c r="W86" s="76"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="75"/>
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
@@ -4072,7 +4082,7 @@
       <c r="V87" s="75"/>
       <c r="W87" s="76"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="75"/>
       <c r="B88" s="75"/>
       <c r="C88" s="75"/>
@@ -4097,7 +4107,7 @@
       <c r="V88" s="75"/>
       <c r="W88" s="76"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="75"/>
       <c r="B89" s="75"/>
       <c r="C89" s="75"/>
@@ -4122,7 +4132,7 @@
       <c r="V89" s="75"/>
       <c r="W89" s="76"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="75"/>
       <c r="B90" s="75"/>
       <c r="C90" s="75"/>
@@ -4147,7 +4157,7 @@
       <c r="V90" s="75"/>
       <c r="W90" s="76"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="75"/>
       <c r="B91" s="75"/>
       <c r="C91" s="75"/>
@@ -4172,7 +4182,7 @@
       <c r="V91" s="75"/>
       <c r="W91" s="76"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="75"/>
       <c r="B92" s="75"/>
       <c r="C92" s="75"/>
@@ -4197,7 +4207,7 @@
       <c r="V92" s="75"/>
       <c r="W92" s="76"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="75"/>
       <c r="B93" s="75"/>
       <c r="C93" s="75"/>
@@ -4222,7 +4232,7 @@
       <c r="V93" s="75"/>
       <c r="W93" s="76"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="75"/>
       <c r="B94" s="75"/>
       <c r="C94" s="75"/>
@@ -4247,7 +4257,7 @@
       <c r="V94" s="75"/>
       <c r="W94" s="76"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="75"/>
       <c r="B95" s="75"/>
       <c r="C95" s="75"/>
@@ -4272,7 +4282,7 @@
       <c r="V95" s="75"/>
       <c r="W95" s="76"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="75"/>
       <c r="B96" s="75"/>
       <c r="C96" s="75"/>
@@ -4297,7 +4307,7 @@
       <c r="V96" s="75"/>
       <c r="W96" s="76"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="75"/>
       <c r="B97" s="75"/>
       <c r="C97" s="75"/>
@@ -4322,7 +4332,7 @@
       <c r="V97" s="75"/>
       <c r="W97" s="76"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="75"/>
       <c r="B98" s="75"/>
       <c r="C98" s="75"/>
@@ -4347,7 +4357,7 @@
       <c r="V98" s="75"/>
       <c r="W98" s="76"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="75"/>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
@@ -4372,7 +4382,7 @@
       <c r="V99" s="75"/>
       <c r="W99" s="76"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="75"/>
       <c r="B100" s="75"/>
       <c r="C100" s="75"/>
@@ -4397,7 +4407,7 @@
       <c r="V100" s="75"/>
       <c r="W100" s="76"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="75"/>
       <c r="B101" s="75"/>
       <c r="C101" s="75"/>
@@ -4422,7 +4432,7 @@
       <c r="V101" s="75"/>
       <c r="W101" s="76"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="75"/>
       <c r="B102" s="75"/>
       <c r="C102" s="75"/>
@@ -4447,7 +4457,7 @@
       <c r="V102" s="75"/>
       <c r="W102" s="76"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="75"/>
       <c r="B103" s="75"/>
       <c r="C103" s="75"/>
@@ -4472,7 +4482,7 @@
       <c r="V103" s="75"/>
       <c r="W103" s="76"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="75"/>
       <c r="B104" s="75"/>
       <c r="C104" s="75"/>
@@ -4497,7 +4507,7 @@
       <c r="V104" s="75"/>
       <c r="W104" s="76"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="75"/>
       <c r="B105" s="75"/>
       <c r="C105" s="75"/>
@@ -4522,7 +4532,7 @@
       <c r="V105" s="75"/>
       <c r="W105" s="76"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="75"/>
       <c r="B106" s="75"/>
       <c r="C106" s="75"/>
@@ -4547,7 +4557,7 @@
       <c r="V106" s="75"/>
       <c r="W106" s="76"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="75"/>
       <c r="B107" s="75"/>
       <c r="C107" s="75"/>
@@ -4572,7 +4582,7 @@
       <c r="V107" s="75"/>
       <c r="W107" s="76"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="75"/>
       <c r="B108" s="75"/>
       <c r="C108" s="75"/>
@@ -4597,7 +4607,7 @@
       <c r="V108" s="75"/>
       <c r="W108" s="76"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="75"/>
       <c r="B109" s="75"/>
       <c r="C109" s="75"/>
@@ -4622,7 +4632,7 @@
       <c r="V109" s="75"/>
       <c r="W109" s="76"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="75"/>
       <c r="B110" s="75"/>
       <c r="C110" s="75"/>
@@ -4647,7 +4657,7 @@
       <c r="V110" s="75"/>
       <c r="W110" s="76"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="75"/>
       <c r="B111" s="75"/>
       <c r="C111" s="75"/>
@@ -4672,7 +4682,7 @@
       <c r="V111" s="75"/>
       <c r="W111" s="76"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="75"/>
       <c r="B112" s="75"/>
       <c r="C112" s="75"/>
@@ -4697,7 +4707,7 @@
       <c r="V112" s="75"/>
       <c r="W112" s="76"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="75"/>
       <c r="B113" s="75"/>
       <c r="C113" s="75"/>
@@ -4722,7 +4732,7 @@
       <c r="V113" s="75"/>
       <c r="W113" s="76"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="75"/>
       <c r="B114" s="75"/>
       <c r="C114" s="75"/>
@@ -4747,7 +4757,7 @@
       <c r="V114" s="75"/>
       <c r="W114" s="76"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="75"/>
       <c r="B115" s="75"/>
       <c r="C115" s="75"/>
@@ -4772,7 +4782,7 @@
       <c r="V115" s="75"/>
       <c r="W115" s="76"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="75"/>
       <c r="B116" s="75"/>
       <c r="C116" s="75"/>
@@ -4797,7 +4807,7 @@
       <c r="V116" s="75"/>
       <c r="W116" s="76"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="75"/>
       <c r="B117" s="75"/>
       <c r="C117" s="75"/>
@@ -4822,7 +4832,7 @@
       <c r="V117" s="75"/>
       <c r="W117" s="76"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="75"/>
       <c r="B118" s="75"/>
       <c r="C118" s="75"/>
@@ -4847,7 +4857,7 @@
       <c r="V118" s="75"/>
       <c r="W118" s="76"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="75"/>
       <c r="B119" s="75"/>
       <c r="C119" s="75"/>
@@ -4872,7 +4882,7 @@
       <c r="V119" s="75"/>
       <c r="W119" s="76"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="75"/>
       <c r="B120" s="75"/>
       <c r="C120" s="75"/>
@@ -4897,7 +4907,7 @@
       <c r="V120" s="75"/>
       <c r="W120" s="76"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="75"/>
       <c r="B121" s="75"/>
       <c r="C121" s="75"/>
@@ -4922,7 +4932,7 @@
       <c r="V121" s="75"/>
       <c r="W121" s="76"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="75"/>
       <c r="B122" s="75"/>
       <c r="C122" s="75"/>
@@ -4947,7 +4957,7 @@
       <c r="V122" s="75"/>
       <c r="W122" s="76"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="75"/>
       <c r="B123" s="75"/>
       <c r="C123" s="75"/>
@@ -4972,7 +4982,7 @@
       <c r="V123" s="75"/>
       <c r="W123" s="76"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="75"/>
       <c r="B124" s="75"/>
       <c r="C124" s="75"/>
@@ -4997,7 +5007,7 @@
       <c r="V124" s="75"/>
       <c r="W124" s="76"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="75"/>
       <c r="B125" s="75"/>
       <c r="C125" s="75"/>
@@ -5022,7 +5032,7 @@
       <c r="V125" s="75"/>
       <c r="W125" s="76"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="75"/>
       <c r="B126" s="75"/>
       <c r="C126" s="75"/>
@@ -5047,7 +5057,7 @@
       <c r="V126" s="75"/>
       <c r="W126" s="76"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="75"/>
       <c r="B127" s="75"/>
       <c r="C127" s="75"/>
@@ -5072,7 +5082,7 @@
       <c r="V127" s="75"/>
       <c r="W127" s="76"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="75"/>
       <c r="B128" s="75"/>
       <c r="C128" s="75"/>
@@ -5097,7 +5107,7 @@
       <c r="V128" s="75"/>
       <c r="W128" s="76"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="75"/>
       <c r="B129" s="75"/>
       <c r="C129" s="75"/>
@@ -5122,7 +5132,7 @@
       <c r="V129" s="75"/>
       <c r="W129" s="76"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="75"/>
       <c r="B130" s="75"/>
       <c r="C130" s="75"/>
@@ -5147,7 +5157,7 @@
       <c r="V130" s="75"/>
       <c r="W130" s="76"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="75"/>
       <c r="B131" s="75"/>
       <c r="C131" s="75"/>
@@ -5172,7 +5182,7 @@
       <c r="V131" s="75"/>
       <c r="W131" s="76"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="75"/>
       <c r="B132" s="75"/>
       <c r="C132" s="75"/>
@@ -5197,7 +5207,7 @@
       <c r="V132" s="75"/>
       <c r="W132" s="76"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="75"/>
       <c r="B133" s="75"/>
       <c r="C133" s="75"/>
@@ -5222,7 +5232,7 @@
       <c r="V133" s="75"/>
       <c r="W133" s="76"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="75"/>
       <c r="B134" s="75"/>
       <c r="C134" s="75"/>
@@ -5247,7 +5257,7 @@
       <c r="V134" s="75"/>
       <c r="W134" s="76"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="75"/>
       <c r="B135" s="75"/>
       <c r="C135" s="75"/>
@@ -5268,7 +5278,7 @@
       <c r="R135" s="76"/>
       <c r="W135" s="76"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="75"/>
       <c r="B136" s="75"/>
       <c r="C136" s="75"/>
@@ -5289,7 +5299,7 @@
       <c r="R136" s="76"/>
       <c r="W136" s="76"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="75"/>
       <c r="B137" s="75"/>
       <c r="C137" s="75"/>
@@ -5310,7 +5320,7 @@
       <c r="R137" s="76"/>
       <c r="W137" s="76"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="75"/>
       <c r="B138" s="75"/>
       <c r="C138" s="75"/>
@@ -5331,7 +5341,7 @@
       <c r="R138" s="76"/>
       <c r="W138" s="76"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="75"/>
       <c r="B139" s="75"/>
       <c r="C139" s="75"/>
@@ -5352,7 +5362,7 @@
       <c r="R139" s="76"/>
       <c r="W139" s="76"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="75"/>
       <c r="B140" s="75"/>
       <c r="C140" s="75"/>
@@ -5373,7 +5383,7 @@
       <c r="R140" s="76"/>
       <c r="W140" s="76"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="75"/>
       <c r="B141" s="75"/>
       <c r="C141" s="75"/>
@@ -5394,7 +5404,7 @@
       <c r="R141" s="76"/>
       <c r="W141" s="76"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="75"/>
       <c r="B142" s="75"/>
       <c r="C142" s="75"/>
@@ -5415,7 +5425,7 @@
       <c r="R142" s="76"/>
       <c r="W142" s="76"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="75"/>
       <c r="B143" s="75"/>
       <c r="C143" s="75"/>
@@ -5436,7 +5446,7 @@
       <c r="R143" s="76"/>
       <c r="W143" s="76"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="75"/>
       <c r="B144" s="75"/>
       <c r="C144" s="75"/>
@@ -5457,7 +5467,7 @@
       <c r="R144" s="76"/>
       <c r="W144" s="76"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="75"/>
       <c r="B145" s="75"/>
       <c r="C145" s="75"/>
@@ -5478,7 +5488,7 @@
       <c r="R145" s="76"/>
       <c r="W145" s="76"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="75"/>
       <c r="B146" s="75"/>
       <c r="C146" s="75"/>
@@ -5499,7 +5509,7 @@
       <c r="R146" s="76"/>
       <c r="W146" s="76"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="75"/>
       <c r="B147" s="75"/>
       <c r="C147" s="75"/>
@@ -5520,7 +5530,7 @@
       <c r="R147" s="76"/>
       <c r="W147" s="76"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="75"/>
       <c r="B148" s="75"/>
       <c r="C148" s="75"/>
@@ -5541,7 +5551,7 @@
       <c r="R148" s="76"/>
       <c r="W148" s="76"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="75"/>
       <c r="B149" s="75"/>
       <c r="C149" s="75"/>
@@ -5562,7 +5572,7 @@
       <c r="R149" s="76"/>
       <c r="W149" s="76"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="75"/>
       <c r="B150" s="75"/>
       <c r="C150" s="75"/>
@@ -5583,7 +5593,7 @@
       <c r="R150" s="76"/>
       <c r="W150" s="76"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="75"/>
       <c r="B151" s="75"/>
       <c r="C151" s="75"/>
@@ -5604,7 +5614,7 @@
       <c r="R151" s="76"/>
       <c r="W151" s="76"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="75"/>
       <c r="B152" s="75"/>
       <c r="C152" s="75"/>
@@ -5625,7 +5635,7 @@
       <c r="R152" s="76"/>
       <c r="W152" s="76"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="75"/>
       <c r="B153" s="75"/>
       <c r="C153" s="75"/>
@@ -5646,7 +5656,7 @@
       <c r="R153" s="76"/>
       <c r="W153" s="76"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="75"/>
       <c r="B154" s="75"/>
       <c r="C154" s="75"/>
@@ -5667,7 +5677,7 @@
       <c r="R154" s="76"/>
       <c r="W154" s="76"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="75"/>
       <c r="B155" s="75"/>
       <c r="C155" s="75"/>
@@ -5688,7 +5698,7 @@
       <c r="R155" s="76"/>
       <c r="W155" s="76"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="75"/>
       <c r="B156" s="75"/>
       <c r="C156" s="75"/>
@@ -5709,7 +5719,7 @@
       <c r="R156" s="76"/>
       <c r="W156" s="76"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="75"/>
       <c r="B157" s="75"/>
       <c r="C157" s="75"/>
@@ -5730,7 +5740,7 @@
       <c r="R157" s="76"/>
       <c r="W157" s="76"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="75"/>
       <c r="B158" s="75"/>
       <c r="C158" s="75"/>
@@ -5751,7 +5761,7 @@
       <c r="R158" s="76"/>
       <c r="W158" s="76"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="75"/>
       <c r="B159" s="75"/>
       <c r="C159" s="75"/>
@@ -5772,7 +5782,7 @@
       <c r="R159" s="76"/>
       <c r="W159" s="76"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="75"/>
       <c r="B160" s="75"/>
       <c r="C160" s="75"/>
@@ -5793,7 +5803,7 @@
       <c r="R160" s="76"/>
       <c r="W160" s="76"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="75"/>
       <c r="B161" s="75"/>
       <c r="C161" s="75"/>
@@ -5814,7 +5824,7 @@
       <c r="R161" s="76"/>
       <c r="W161" s="76"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="75"/>
       <c r="B162" s="75"/>
       <c r="C162" s="75"/>
@@ -5835,7 +5845,7 @@
       <c r="R162" s="76"/>
       <c r="W162" s="76"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="75"/>
       <c r="B163" s="75"/>
       <c r="C163" s="75"/>
@@ -5856,7 +5866,7 @@
       <c r="R163" s="76"/>
       <c r="W163" s="76"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="75"/>
       <c r="B164" s="75"/>
       <c r="C164" s="75"/>
@@ -5877,7 +5887,7 @@
       <c r="R164" s="76"/>
       <c r="W164" s="76"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="75"/>
       <c r="B165" s="75"/>
       <c r="C165" s="75"/>
@@ -5898,7 +5908,7 @@
       <c r="R165" s="76"/>
       <c r="W165" s="76"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="75"/>
       <c r="B166" s="75"/>
       <c r="C166" s="75"/>
@@ -5919,7 +5929,7 @@
       <c r="R166" s="76"/>
       <c r="W166" s="76"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23">
       <c r="A167" s="75"/>
       <c r="B167" s="75"/>
       <c r="C167" s="75"/>
@@ -5940,7 +5950,7 @@
       <c r="R167" s="76"/>
       <c r="W167" s="76"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23">
       <c r="A168" s="75"/>
       <c r="B168" s="75"/>
       <c r="C168" s="75"/>
@@ -5961,7 +5971,7 @@
       <c r="R168" s="76"/>
       <c r="W168" s="76"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23">
       <c r="A169" s="75"/>
       <c r="B169" s="75"/>
       <c r="C169" s="75"/>
@@ -6021,19 +6031,19 @@
     <hyperlink ref="S10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -6053,63 +6063,63 @@
     <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="L1" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="M1" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="N1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>71</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>72</v>
       </c>
       <c r="R1" s="37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="77.25" customHeight="1">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -6129,7 +6139,7 @@
       <c r="Q2" s="57"/>
       <c r="R2" s="57"/>
     </row>
-    <row r="3" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="77.25" customHeight="1">
       <c r="A3" s="38"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -6149,7 +6159,7 @@
       <c r="Q3" s="57"/>
       <c r="R3" s="57"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="45"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -6176,14 +6186,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
@@ -6195,9 +6205,9 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -6210,42 +6220,42 @@
       <c r="J1" s="96"/>
       <c r="K1" s="96"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>83</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="97"/>
       <c r="B3" s="97"/>
       <c r="C3" s="26"/>
@@ -6258,7 +6268,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="34"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="98"/>
       <c r="B4" s="99"/>
       <c r="C4" s="26"/>
@@ -6271,7 +6281,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="34"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="97"/>
       <c r="B5" s="97"/>
       <c r="C5" s="26"/>
@@ -6284,7 +6294,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="34"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="99"/>
       <c r="B6" s="99"/>
       <c r="C6" s="26"/>
@@ -6297,7 +6307,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="99"/>
       <c r="B7" s="99"/>
       <c r="C7" s="26"/>
@@ -6310,7 +6320,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="99"/>
       <c r="B8" s="99"/>
       <c r="C8" s="26"/>
@@ -6323,7 +6333,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="34"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="99"/>
       <c r="B9" s="99"/>
       <c r="C9" s="26"/>
@@ -6336,7 +6346,7 @@
       <c r="J9" s="33"/>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="98"/>
       <c r="B10" s="98"/>
       <c r="C10" s="26"/>
@@ -6349,7 +6359,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="34"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="26"/>
@@ -6376,14 +6386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6398,9 +6408,9 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -6415,7 +6425,7 @@
       <c r="L1" s="100"/>
       <c r="M1" s="101"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="102"/>
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
@@ -6430,48 +6440,48 @@
       <c r="L2" s="102"/>
       <c r="M2" s="103"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -6485,7 +6495,7 @@
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="111.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="111.95" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -6500,7 +6510,7 @@
       <c r="L5" s="21"/>
       <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6515,7 +6525,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6530,7 +6540,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6545,7 +6555,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6560,7 +6570,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6575,7 +6585,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6590,7 +6600,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6605,7 +6615,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6620,7 +6630,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6635,7 +6645,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6650,7 +6660,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6689,14 +6699,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6711,9 +6721,9 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -6728,7 +6738,7 @@
       <c r="L1" s="100"/>
       <c r="M1" s="101"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="102"/>
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
@@ -6743,48 +6753,48 @@
       <c r="L2" s="102"/>
       <c r="M2" s="103"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -6798,7 +6808,7 @@
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="111.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="111.95" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -6813,7 +6823,7 @@
       <c r="L5" s="21"/>
       <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6828,7 +6838,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6843,7 +6853,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6858,7 +6868,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6873,7 +6883,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6888,7 +6898,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6903,7 +6913,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6918,7 +6928,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6933,7 +6943,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6948,7 +6958,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6963,7 +6973,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7002,14 +7012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -7024,9 +7034,9 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -7041,7 +7051,7 @@
       <c r="L1" s="100"/>
       <c r="M1" s="101"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="102"/>
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
@@ -7056,48 +7066,48 @@
       <c r="L2" s="102"/>
       <c r="M2" s="103"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -7111,7 +7121,7 @@
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="111.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="111.95" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -7126,7 +7136,7 @@
       <c r="L5" s="21"/>
       <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -7141,7 +7151,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7156,7 +7166,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7171,7 +7181,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7186,7 +7196,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7201,7 +7211,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7216,7 +7226,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7231,7 +7241,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7246,7 +7256,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7261,7 +7271,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7276,7 +7286,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7315,14 +7325,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -7339,9 +7349,9 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -7356,7 +7366,7 @@
       <c r="L1" s="100"/>
       <c r="M1" s="101"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="102"/>
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
@@ -7371,48 +7381,48 @@
       <c r="L2" s="102"/>
       <c r="M2" s="103"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7427,7 +7437,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7442,7 +7452,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7457,7 +7467,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7472,7 +7482,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7487,7 +7497,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7502,7 +7512,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7517,7 +7527,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7532,7 +7542,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7547,7 +7557,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7562,7 +7572,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7577,7 +7587,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7592,7 +7602,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7631,14 +7641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7649,33 +7659,33 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7685,7 +7695,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7695,7 +7705,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7705,7 +7715,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7715,7 +7725,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7725,7 +7735,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7735,7 +7745,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7745,7 +7755,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7755,7 +7765,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7765,7 +7775,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7775,7 +7785,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7785,7 +7795,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7795,7 +7805,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7805,7 +7815,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7815,7 +7825,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7825,7 +7835,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7835,7 +7845,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7845,7 +7855,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
